--- a/企画書仕様書/ManipulateMagnetism.xlsx
+++ b/企画書仕様書/ManipulateMagnetism.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\magnet\manipulateMagnatism\企画書・仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\Git\magnet\manipulateMagnatism\企画書仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE663C64-7F28-44E9-8B2C-49DA6F1E961D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D508C694-4D36-43CE-AB01-C10B7BB4D498}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7224" tabRatio="751" xr2:uid="{14BB46C6-126C-428D-A569-FF9EF9719E7C}"/>
   </bookViews>
@@ -11147,7 +11147,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="983558" y="2681430"/>
-              <a:ext cx="288905" cy="904176"/>
+              <a:ext cx="288905" cy="1514157"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11287,321 +11287,6 @@
             <a:p>
               <a:pPr algn="ctr"/>
               <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="74" name="正方形/長方形 73">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3168D24-BE12-4472-A8A6-69355B36558F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4331219" y="2833515"/>
-              <a:ext cx="1621396" cy="400110"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="20000"/>
-                <a:lumOff val="80000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="正方形/長方形 77">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80BC6094-9452-4249-8E67-86D07B775C0F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr>
-              <a:spLocks noChangeAspect="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="988470" y="3584458"/>
-              <a:ext cx="283994" cy="611127"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-                <a:prstClr val="black">
-                  <a:alpha val="40000"/>
-                </a:prstClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="2">
-              <a:schemeClr val="accent1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:lnRef>
-            <a:fillRef idx="1">
-              <a:schemeClr val="accent1"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:schemeClr val="accent1"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="lt1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-            <a:lstStyle>
-              <a:defPPr>
-                <a:defRPr lang="ja-JP"/>
-              </a:defPPr>
-              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl1pPr>
-              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl2pPr>
-              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl3pPr>
-              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl4pPr>
-              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl5pPr>
-              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl6pPr>
-              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl7pPr>
-              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl8pPr>
-              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-                <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                  <a:solidFill>
-                    <a:schemeClr val="lt1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:lvl9pPr>
-            </a:lstStyle>
-            <a:p>
-              <a:pPr algn="ctr"/>
-              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -12027,6 +11712,165 @@
             </a:prstGeom>
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="40000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="ja-JP"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr kumimoji="1" sz="1800" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="74" name="正方形/長方形 73">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3168D24-BE12-4472-A8A6-69355B36558F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr>
+              <a:spLocks/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4331219" y="2833515"/>
+              <a:ext cx="1621396" cy="400110"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -15168,162 +15012,6 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75D1286F-B182-45E9-90DF-0F462D6B0D9B}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5087309" y="7030115"/>
-            <a:ext cx="379739" cy="413727"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
-              <a:prstClr val="black">
-                <a:alpha val="40000"/>
-              </a:prstClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="ja-JP"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr kumimoji="1" sz="1800" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
           <xdr:cNvPr id="25" name="正方形/長方形 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -16291,6 +15979,180 @@
         </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>416616</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>34961</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>168488</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B82086B-B11A-4A14-9EF2-CF5A3ADC11E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9103416" y="8938260"/>
+          <a:ext cx="288905" cy="816188"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -27399,9 +27261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DA01D0-DE6C-4300-ACA4-E5AFF7F22120}">
   <dimension ref="C1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27588,9 +27448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86AE8019-3604-4D6B-86F3-AFD869EEF694}">
   <dimension ref="A2:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -27716,9 +27574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4529438A-A08B-4E39-B627-C2E0EEECC270}">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28038,9 +27894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A20315-52AD-4FA1-AF83-9BCA99AC1D49}">
   <dimension ref="A2:H50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28577,7 +28431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B64934F0-F65D-4CE2-86B4-5C92C7E4A300}">
   <dimension ref="A2:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28603,9 +28457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A28DB7EC-A105-46B9-A68F-92286DC524D6}">
   <dimension ref="A2:K8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28634,9 +28486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67581940-9C43-46AA-9867-17C36496E81B}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -28974,9 +28824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE04690-4FA0-44CE-A228-E705B5DBEB1F}">
   <dimension ref="A2:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29298,9 +29146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A5EE5E-39C9-476A-B569-5450399E359D}">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29346,9 +29192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26CA4AB-F3C9-4957-84AB-E4945333C4E0}">
   <dimension ref="A2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -29412,9 +29256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9CF370-5AD3-4FB7-B2A2-03C64B524B1B}">
   <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
